--- a/Texts/Город Сокровищ/Все персонажи/Пачирису.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пачирису.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -130,6 +130,27 @@
   </si>
   <si>
     <t xml:space="preserve"> À ëôäà âú ðïêäæóå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Murkrow[CR]\'s been over there\nfor a while now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It looks like she\'s having a hard\ntime deciding what to order.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Маркроу[CR] здесь уже долго стоит.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, она не может решить,\nчто ей заказать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Íàñëñïô[CR] èäåòû ôçå äïìãï òóïéó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, ïîà îå íïçåó ñåšéóû,\nœóï åê èàëàèàóû.</t>
   </si>
 </sst>
 </file>
@@ -525,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,6 +723,37 @@
         <v>36</v>
       </c>
     </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4">
+        <v>307</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>316</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Пачирису.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пачирису.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -151,6 +151,87 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïöïçå, ïîà îå íïçåó ñåšéóû,\nœóï åê èàëàèàóû.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The last time I had a drink here,\nthis stranger came up to me and gave me\nan Egg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> These drinks sure are special.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В прошлый раз, когда я пил\nнапиток, ко мне подошел незнакомец и дал\nмне Яйцо.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эти напитки, несомненно,\nособенные.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ðñïšìúê ñàè, ëïãäà ÿ ðéì\nîàðéóïë, ëï íîå ðïäïšåì îåèîàëïíåø é äàì\níîå Ÿêøï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóé îàðéóëé, îåòïíîåîîï,\nïòïáåîîúå.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1303.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1409.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, listen up!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I was here having a juice drink\nas usual, and something really cool happened!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Once I finished my drink, I\nfound \"Win!\" written on the bottom of\nmy glass!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I busted out laughing!\nAh ha ha ha!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There are such surprises here\nat the Juice Bar!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, послушайте!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я тут как обычно пил напиток\nи произошло кое-что классное!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Допив свой напиток, я\nобнаружил на дне стакана надпись\n\"Выигрыш!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я так смеялся! Ах-ха-ха-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Этот Бар Напитков полон\nсюрпризов!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, ðïòìôšàêóå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óôó ëàë ïáúœîï ðéì îàðéóïë\né ðñïéèïšìï ëïå-œóï ëìàòòîïå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïðéâ òâïê îàðéóïë, ÿ\nïáîàñôçéì îà äîå òóàëàîà îàäðéòû\n\"Âúéãñúš!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óàë òíåÿìòÿ! Àö-öà-öà-öà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóïó Áàñ Îàðéóëïâ ðïìïî\nòýñðñéèïâ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1503.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1603.ssb</t>
   </si>
 </sst>
 </file>
@@ -546,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,17 +822,148 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6">
         <v>316</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4">
+        <v>282</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4">
+        <v>285</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="6">
+        <v>288</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="4">
+        <v>243</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="4">
+        <v>246</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="4">
+        <v>249</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>256</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>263</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Пачирису.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пачирису.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -232,6 +232,42 @@
   </si>
   <si>
     <t>SCRIPT/P01P04A/um1603.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um2104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Different things happen when\nyou consume many of these drinks…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I usually get a really tasty\ndrink, but the last one I had was\njust terrible…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But [CS:N]Spinda[CR] always has such a\nhappy grin on his face, I wasn\'t able to\nbring myself to tell him it was terrible…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Всякое может случиться при\nупотреблении напитков...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Обычно я всегда пью вкусные\nнапитки, но в прошлый раз вкус был просто\nужасен...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но у [CS:N]Спинды[CR] постоянно такая\nсчастливая морда, что я просто не сумел\nсказать ему об этом...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòÿëïå íïçåó òìôœéóûòÿ ðñé\nôðïóñåáìåîéé îàðéóëïâ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïáúœîï ÿ âòåãäà ðûý âëôòîúå\nîàðéóëé, îï â ðñïšìúê ñàè âëôò áúì ðñïòóï\nôçàòåî...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ô [CS:N]Òðéîäú[CR] ðïòóïÿîîï óàëàÿ\nòœàòóìéâàÿ íïñäà, œóï ÿ ðñïòóï îå òôíåì\nòëàèàóû åíô ïá üóïí...</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um2204.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um2403.ssb</t>
   </si>
 </sst>
 </file>
@@ -627,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,17 +989,69 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6">
         <v>263</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="4">
+        <v>218</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="4">
+        <v>221</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="4">
+        <v>224</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Пачирису.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пачирису.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -268,6 +268,183 @@
   </si>
   <si>
     <t>SCRIPT/P01P04A/um2403.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um2503.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s thanks to you guys that I\'m\neven able to sit here enjoying\nsuch delicious drinks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thanks, Team [team:].</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us0103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Друзья, благодаря вам я могу\nсидеть здесь и наслаждаться вкуснейшими\nнапитками.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо вам, Команда\n[team:].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äñôèûÿ, áìàãïäàñÿ âàí ÿ íïãô\nòéäåóû èäåòû é îàòìàçäàóûòÿ âëôòîåêšéíé\nîàðéóëàíé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï âàí, Ëïíàîäà\n[team:].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wonder if any new drink\ningredients can be found around [CS:P]Sky Peak[CR]…</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3108.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, можно ли на [CS:P]Небесном\nПике[CR] найти новых ингредиентов для\nнапитков...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, íïçîï ìé îà [CS:P]Îåáåòîïí\nÐéëå[CR] îàêóé îïâúö éîãñåäéåîóïâ äìÿ\nîàðéóëïâ…</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P23A/us3107.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I heard [CS:N]Shaymin[CR] talking earlier…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I did find a [CS:I]Sky Gift[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team [team:] saved the\nworld, and I owe you for many things, so…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I always wanted to show you\nmy appreciation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So please accept this from me!</t>
+  </si>
+  <si>
+    <t>[CN][player] received\n[CN]a [CS:I]Sky Gift[CR].</t>
+  </si>
+  <si>
+    <t>[CN]You gently open the lid…</t>
+  </si>
+  <si>
+    <t>[CN]Inside was the\n[CN][s_item:0]!</t>
+  </si>
+  <si>
+    <t>[CN]A warm and fuzzy feeling falls over you…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Or so I thought, but you seem\nto have too many items already.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hmm... That\'s too bad…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я подслушал, о чём говорил\n[CS:N]Шеймин[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я нашёл [CS:I]Небесный Подарок[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Команда [team:] спасла\nмир и я вам стольким обязан...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я всегда хотел выразить свою\nпризнательность.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, прошу, прими его в\nдар!</t>
+  </si>
+  <si>
+    <t>[CN][player] получает\n[CN][CS:I]Небесный Подарок[CR].</t>
+  </si>
+  <si>
+    <t>[CN]Вы осторожно открываете его...</t>
+  </si>
+  <si>
+    <t>[CN]Внутри лежит предмет\n[CN][s_item:0]!</t>
+  </si>
+  <si>
+    <t>[CN]Вас охватывает тёплое и приятное чувство...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Или я хотел, но, похоже, у\nтебя слишком много вещей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хмм... Очень жаль...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïäòìôšàì, ï œæí ãïâïñéì\n[CS:N]Šåêíéî[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îàšæì [CS:I]Îåáåòîúê Ðïäàñïë[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïíàîäà [team:] òðàòìà\níéñ é ÿ âàí òóïìûëéí ïáÿèàî...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âòåãäà öïóåì âúñàèéóû òâïý\nðñéèîàóåìûîïòóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô, ðñïšô, ðñéíé åãï â\näàñ!</t>
+  </si>
+  <si>
+    <t>[CN][player] ðïìôœàåó\n[CN][CS:I]Îåáåòîúê Ðïäàñïë[CR].</t>
+  </si>
+  <si>
+    <t>[CN]Âú ïòóïñïçîï ïóëñúâàåóå åãï...</t>
+  </si>
+  <si>
+    <t>[CN]Âîôóñé ìåçéó ðñåäíåó\n[CN][s_item:0]!</t>
+  </si>
+  <si>
+    <t>[CN]Âàò ïöâàóúâàåó óæðìïå é ðñéÿóîïå œôâòóâï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Éìé ÿ öïóåì, îï, ðïöïçå, ô\nóåáÿ òìéšëïí íîïãï âåþåê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öíí... Ïœåîû çàìû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh? Thanks for the gift?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re more than welcome!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что? Спасибо за подарок?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Всегда пожалуйста!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï? Òðàòéáï èà ðïäàñïë?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòåãäà ðïçàìôêòóà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phew... The 4th Station\nClearing, huh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As I find a [CS:I]Sky Gift[CR], I search\nfor someone to give it to... I\'m not\nmaking much progress.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P24A/us3104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Фух... Поляна 4-го Перехода, да?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как только я нахожу [CS:I]Небесный\nПодарок[CR], я пытаюсь найти кого-нибудь, кому\nмогу его дать... У меня не получается.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Õôö... Ðïìÿîà 4-ãï Ðåñåöïäà, äà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë óïìûëï ÿ îàöïçô [CS:I]Îåáåòîúê\nÐïäàñïë[CR], ÿ ðúóàýòû îàêóé ëïãï-îéáôäû, ëïíô\níïãô åãï äàóû... Ô íåîÿ îå ðïìôœàåóòÿ.</t>
   </si>
 </sst>
 </file>
@@ -663,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,6 +1231,281 @@
         <v>80</v>
       </c>
     </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="4">
+        <v>196</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6">
+        <v>199</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="8">
+        <v>177</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="4">
+        <v>112</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>115</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>118</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>121</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>124</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>134</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>137</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>143</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>146</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>153</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>156</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>96</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6">
+        <v>99</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="4">
+        <v>79</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>82</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Пачирису.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пачирису.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="173">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -445,6 +445,99 @@
   </si>
   <si>
     <t xml:space="preserve"> Ëàë óïìûëï ÿ îàöïçô [CS:I]Îåáåòîúê\nÐïäàñïë[CR], ÿ ðúóàýòû îàêóé ëïãï-îéáôäû, ëïíô\níïãô åãï äàóû... Ô íåîÿ îå ðïìôœàåóòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The [CS:I]Sky Gift[CR]s I received in\nreturn had all sorts of wonderful items inside.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Once I used the items, I made\nit to the summit before I knew it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:I]Sky Gift[CR]s are such\nwonderful treasures!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P31A/us3104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В [CS:I]Небесных Подарках[CR], которых\nдарили мне, было множество чудесных вещей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эти предметы очень помогли мне\nдобраться до вершины!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:I]Небесные Подарки[CR] это очень\nчудесные сокровища!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â [CS:I]Îåáåòîúö Ðïäàñëàö[CR], ëïóïñúö\näàñéìé íîå, áúìï íîïçåòóâï œôäåòîúö âåþåê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóé ðñåäíåóú ïœåîû ðïíïãìé íîå\näïáñàóûòÿ äï âåñšéîú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:I]Îåáåòîúå Ðïäàñëé[CR] üóï ïœåîû\nœôäåòîúå òïëñïâéþà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/D73P31A/us0203.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P31A/us0303.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P31A/us0403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I haven\'t returned in a while…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wanted a [CS:I]Sky Gift[CR], so I\'ve\nbeen exploring [CS:P]Sky Peak[CR] for some time.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2003.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давно меня здесь не было...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я хотел найти [CS:I]Небесный Подарок[CR],\nпоэтому я долго исследовал [CS:P]Небесный Пик[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàâîï íåîÿ èäåòû îå áúìï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ öïóåì îàêóé [CS:I]Îåáåòîúê Ðïäàñïë[CR],\nðïüóïíô ÿ äïìãï éòòìåäïâàì [CS:P]Îåáåòîúê Ðéë[CR].</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Have you heard of [CS:K]Shaymin[CR]\'s\nDelivery Service?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s a service that will deliver\n[CS:I]Sky Gift[CR]s to others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The shop is near the [CS:P]Shaymin\nVillage[CR]\'s entrance. You should check it\nout sometime.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2203.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы знаете про Службу Доставки\n[CS:K]Шейминов[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это служба, которая доставляет\n[CS:I]Небесные Подарки[CR] другим Покемонам.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Служба находится у входа в\n[CS:P]Деревню Шейминов[CR]. Вам стоит как-нибудь\nею воспользоваться.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú èîàåóå ðñï Òìôçáô Äïòóàâëé\n[CS:K]Šåêíéîïâ[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï òìôçáà, ëïóïñàÿ äïòóàâìÿåó\n[CS:I]Îåáåòîúå Ðïäàñëé[CR] äñôãéí Ðïëåíïîàí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òìôçáà îàöïäéóòÿ ô âöïäà â\n[CS:P]Äåñåâîý Šåêíéîïâ[CR]. Âàí òóïéó ëàë-îéáôäû\nåý âïòðïìûèïâàóûòÿ.</t>
   </si>
 </sst>
 </file>
@@ -840,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1493,17 +1586,157 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="B42" s="4">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6">
         <v>82</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="7" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="4">
+        <v>60</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="4">
+        <v>63</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="4">
+        <v>66</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="4">
+        <v>44</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="6">
+        <v>47</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="4">
+        <v>18</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
+        <v>21</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
+        <v>24</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Пачирису.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пачирису.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="174">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -538,6 +538,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Òìôçáà îàöïäéóòÿ ô âöïäà â\n[CS:P]Äåñåâîý Šåêíéîïâ[CR]. Âàí òóïéó ëàë-îéáôäû\nåý âïòðïìûèïâàóûòÿ.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2303.ssb</t>
   </si>
 </sst>
 </file>
@@ -936,7 +939,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1711,7 +1714,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="B50" s="4">
         <v>21</v>
       </c>
